--- a/com.learnautomation.selenium/TestData/Registration.xlsx
+++ b/com.learnautomation.selenium/TestData/Registration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hybrid_Framework_NewOct-master\Hybrid_Framework_NewOct-master\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lipika Biswal\git\AutomatiatomFrame\com.learnautomation.selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF95E63F-9E01-4D7A-A03C-C43596E17946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD565359-A5FD-4CA7-A7CB-D29B0BBA2572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>Samal</t>
   </si>
   <si>
-    <t>debasishsamal.dl@gmail.com</t>
-  </si>
-  <si>
     <t>deba123</t>
+  </si>
+  <si>
+    <t>debasishsamassssl.dl@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,16 +431,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>123456777</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
